--- a/biology/Médecine/Maladie_de_Bowen/Maladie_de_Bowen.xlsx
+++ b/biology/Médecine/Maladie_de_Bowen/Maladie_de_Bowen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maladie de Bowen est un carcinome épidermoïde (ou spinocellulaire) intra-épidermique (carcinome in situ), favorisé par le soleil et l'arsenic. Elle peut toucher la peau mais aussi les muqueuses[1].
-Elle se présente sous la forme d'une lésion brun rougeâtre arrondie ou arciforme bien limitée dont la surface est un peu surélevée et squameuse[1]. Son diagnostic est histologique.
-Son évolution est très lente et la maladie présente un excellent pronostic de guérison. En revanche, en l'absence d'un diagnostic et d'un traitement approprié, elle évolue lentement mais sûrement vers un véritable carcinome épidermoïde invasif[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie de Bowen est un carcinome épidermoïde (ou spinocellulaire) intra-épidermique (carcinome in situ), favorisé par le soleil et l'arsenic. Elle peut toucher la peau mais aussi les muqueuses.
+Elle se présente sous la forme d'une lésion brun rougeâtre arrondie ou arciforme bien limitée dont la surface est un peu surélevée et squameuse. Son diagnostic est histologique.
+Son évolution est très lente et la maladie présente un excellent pronostic de guérison. En revanche, en l'absence d'un diagnostic et d'un traitement approprié, elle évolue lentement mais sûrement vers un véritable carcinome épidermoïde invasif.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Images supplémentaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
